--- a/cav/Dataset/Dataset.xlsx
+++ b/cav/Dataset/Dataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Natural Language</t>
   </si>
@@ -382,6 +382,16 @@
   </si>
   <si>
     <t>G((goStraight_MainStreet_1km) -&gt; (X((turnLeft_PineAvenue &amp; F(reach_TrafficLight)) -&gt; X(turnRight_MapleStreet &amp; F(reach_123_MapleStreet)))))</t>
+  </si>
+  <si>
+    <t>1. Proceed straight for 500 meters.
+2. Turn right at the traffic light.
+3. Continue straight for 800 meters.
+4. When you see the university campus, turn left.
+5. Proceed for another 1 kilometer to reach your destination.</t>
+  </si>
+  <si>
+    <t>G((goStraight -&gt; (F[0,500] prepareRight)) &amp; (makeRight -&gt; (F[0,800] prepareLeft)) &amp; (makeLeft -&gt; (F[0,1000] reachDestination)))</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,9 +1030,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1550,10 +1557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1571,395 +1578,403 @@
       </c>
     </row>
     <row r="2" ht="42" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="56" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="56" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="70" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="70" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="56" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="56" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="70" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="56" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="70" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="70" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="70" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" ht="98" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="56" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" ht="84" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" ht="98" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" ht="70" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" ht="56" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" ht="84" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" ht="56" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" ht="84" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" ht="70" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" ht="70" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" ht="70" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="70" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" ht="56" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" ht="56" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" ht="70" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" ht="84" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" ht="56" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" ht="84" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" ht="70" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" ht="70" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" ht="56" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" ht="84" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" ht="98" spans="1:2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" ht="56" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" ht="70" spans="1:2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" ht="56" spans="1:2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="51" ht="70" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
